--- a/data/trans_camb/P23_1_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_1_R-Edad-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,57</t>
+          <t>-3,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,75</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>-5,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,9</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-5,04</t>
+          <t>-9,6</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-4,43</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-3,43</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-6,26</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,99; 6,51</t>
+          <t>-17,55; 7,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,58; 3,07</t>
+          <t>-14,49; 11,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-10,64; 8,76</t>
+          <t>-14,67; 13,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 2,59</t>
+          <t>-17,9; 5,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 4,51</t>
+          <t>-17,47; 7,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,9; 0,42</t>
+          <t>-22,8; -0,84</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-13,59; 3,38</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-12,98; 6,3</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-14,51; 2,59</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-36,61%</t>
+          <t>-49,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-67,51%</t>
+          <t>-29,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-10,82%</t>
+          <t>-33,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-51,2%</t>
+          <t>-43,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-22,51%</t>
+          <t>-36,56%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-59,73%</t>
+          <t>-83,05%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-46,24%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-35,83%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-65,43%</t>
         </is>
       </c>
     </row>
@@ -725,22 +801,37 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-74,35; 201,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-91,54; 76,56</t>
+          <t>-100,0; 166,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,97; 110,44</t>
+          <t>-100,0; 223,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-89,09; 38,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-88,91; 86,5</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-88,37; 179,36</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 162,08</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,36</t>
+          <t>28,3</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,46</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>-4,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>-5,13</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>14,77</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-4,02</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 36,37</t>
+          <t>5,28; 60,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 24,91</t>
+          <t>-6,78; 43,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,46; 11,88</t>
+          <t>-13,35; 8,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 15,99</t>
+          <t>-13,53; 14,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 21,08</t>
+          <t>-16,84; 8,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 15,17</t>
+          <t>-17,36; 13,52</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 35,79</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-8,37; 24,74</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-13,06; 5,78</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>110,94%</t>
+          <t>370,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,24%</t>
+          <t>107,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>-25,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>44,46%</t>
+          <t>-0,19%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>62,18%</t>
+          <t>-24,99%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>-30,1%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>120,19%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>17,93%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-32,73%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,71; 658,66</t>
+          <t>5,34; 3073,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-75,22; 501,82</t>
+          <t>-83,27; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-51,45; 172,89</t>
+          <t>-100,0; 422,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-33,05; 216,85</t>
+          <t>-58,45; 176,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 265,67</t>
+          <t>-72,19; 98,92</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-32,99; 206,03</t>
+          <t>-81,96; 193,52</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-3,55; 419,57</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-57,41; 316,52</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-78,47; 71,25</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-9,31</t>
+          <t>-4,82</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-4,18</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>-5,42</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,43</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,75</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-4,63</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-30,82; 1,54</t>
+          <t>-17,98; 9,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 7,4</t>
+          <t>-8,34; 22,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 15,4</t>
+          <t>-15,95; 7,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 10,67</t>
+          <t>-2,52; 18,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,15; 6,47</t>
+          <t>-6,88; 13,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 6,62</t>
+          <t>-13,8; 3,69</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 11,28</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,1; 13,54</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-12,28; 3,02</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-52,25%</t>
+          <t>-26,15%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-23,45%</t>
+          <t>35,62%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>58,7%</t>
+          <t>-22,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>65,08%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,3%</t>
+          <t>24,85%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>-41,17%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>22,6%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>31,34%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-30,51%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-87,19; 19,61</t>
+          <t>-70,61; 93,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-75,54; 71,49</t>
+          <t>-34,82; 222,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 187,48</t>
+          <t>-66,45; 79,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 124,31</t>
+          <t>-14,96; 204,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-48,34; 69,43</t>
+          <t>-41,87; 147,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-50,29; 60,91</t>
+          <t>-76,1; 59,76</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-29,86; 100,22</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-24,92; 122,71</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-65,2; 30,87</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>5,66</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,71</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,05</t>
+          <t>-4,56</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>6,74</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,41</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,81</t>
+          <t>-1,74</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6,23</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2,94</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-3,23</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 12,6</t>
+          <t>-4,36; 15,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 15,35</t>
+          <t>-7,42; 12,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 12,63</t>
+          <t>-13,87; 4,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 11,76</t>
+          <t>-3,63; 18,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 10,32</t>
+          <t>-6,38; 13,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 11,26</t>
+          <t>-11,46; 8,25</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-1,51; 14,18</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-3,87; 10,58</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-9,7; 4,0</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>44,94%</t>
+          <t>48,9%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>61,35%</t>
+          <t>20,85%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>27,01%</t>
+          <t>-39,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>22,07%</t>
+          <t>43,09%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>33,47%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>36,54%</t>
+          <t>-11,1%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>45,21%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>21,32%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>-23,42%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-24,8; 179,12</t>
+          <t>-31,9; 239,61</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 209,56</t>
+          <t>-49,63; 182,82</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 115,81</t>
+          <t>-83,39; 102,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-31,43; 108,86</t>
+          <t>-21,14; 176,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,47; 103,81</t>
+          <t>-33,08; 139,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 108,62</t>
+          <t>-57,06; 75,81</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-8,86; 141,95</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-21,89; 110,98</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-57,43; 40,04</t>
         </is>
       </c>
     </row>
@@ -1225,32 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,22</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>8,22</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>-2,04</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>3,66</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3,18</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>-0,63</t>
         </is>
       </c>
     </row>
@@ -1263,32 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-11,82; 7,37</t>
+          <t>-12,67; 13,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 13,65</t>
+          <t>-10,22; 21,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 14,92</t>
+          <t>-15,57; 14,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,4; 7,34</t>
+          <t>-4,23; 21,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,63; 8,44</t>
+          <t>-11,99; 9,0</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 6,92</t>
+          <t>-8,15; 15,99</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-7,0; 12,61</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-8,57; 13,31</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-8,95; 11,87</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-11,38%</t>
+          <t>-3,25%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>17,22%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>45,7%</t>
+          <t>-18,92%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-6,99%</t>
+          <t>98,02%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>-24,28%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-2,13%</t>
+          <t>43,59%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>22,0%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>6,78%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>-4,38%</t>
         </is>
       </c>
     </row>
@@ -1339,32 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-51,69; 59,74</t>
+          <t>-51,93; 101,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-46,07; 100,73</t>
+          <t>-42,9; 165,07</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,53; 190,2</t>
+          <t>-66,38; 122,06</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-62,62; 101,85</t>
+          <t>-48,09; 811,12</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-30,08; 69,4</t>
+          <t>-100,0; 529,51</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-40,17; 60,14</t>
+          <t>-68,76; 515,6</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-38,46; 126,89</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-47,14; 134,38</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-52,87; 127,82</t>
         </is>
       </c>
     </row>
@@ -1381,32 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>9,28</t>
+          <t>9,39</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>8,15</t>
+          <t>12,7</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,38</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-3,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>5,44</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>4,04</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>4,21</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>4,14</t>
         </is>
       </c>
     </row>
@@ -1419,32 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 20,5</t>
+          <t>-2,33; 24,02</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 17,39</t>
+          <t>0,37; 27,37</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 13,46</t>
+          <t>-6,86; 16,21</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-13,13; 12,62</t>
+          <t>-16,2; 11,85</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 13,54</t>
+          <t>-17,08; 12,5</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 11,49</t>
+          <t>-13,24; 22,84</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>-8,24; 11,86</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; 14,16</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>-7,16; 15,34</t>
         </is>
       </c>
     </row>
@@ -1457,32 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>127,36%</t>
+          <t>192,93%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>111,95%</t>
+          <t>261,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>15,84%</t>
+          <t>60,75%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-1,92%</t>
+          <t>-18,7%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>46,8%</t>
+          <t>-16,04%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>25,2%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>22,45%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>38,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>37,34%</t>
         </is>
       </c>
     </row>
@@ -1495,32 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-21,06; 609,78</t>
+          <t>-74,06; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-25,36; 477,62</t>
+          <t>-46,57; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-57,39; 136,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-63,73; 148,67</t>
+          <t>-73,97; 164,78</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 169,01</t>
+          <t>-74,34; 188,23</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-39,76; 147,63</t>
+          <t>-58,41; 304,32</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>-54,66; 185,14</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>-38,75; 215,49</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>-49,57; 231,27</t>
         </is>
       </c>
     </row>
@@ -1537,32 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>1,28</t>
+          <t>6,1</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,59</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>-0,38</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>-2,3</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>4,65</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>-2,67</t>
         </is>
       </c>
     </row>
@@ -1575,32 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 6,87</t>
+          <t>0,14; 16,56</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 5,66</t>
+          <t>-1,64; 12,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 7,47</t>
+          <t>-8,74; 1,67</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 5,54</t>
+          <t>-1,93; 8,15</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 6,4</t>
+          <t>-5,52; 3,8</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 3,85</t>
+          <t>-7,12; 3,04</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 9,52</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>-2,14; 6,33</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>-6,34; 0,79</t>
         </is>
       </c>
     </row>
@@ -1613,32 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>50,74%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>37,62%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>27,86%</t>
+          <t>-24,85%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>24,32%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>-2,71%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>-16,46%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>35,63%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>15,05%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>-20,48%</t>
         </is>
       </c>
     </row>
@@ -1651,43 +2087,65 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-25,92; 70,06</t>
+          <t>-4,57; 159,34</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-33,39; 55,16</t>
+          <t>-12,85; 122,92</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-3,16; 70,57</t>
+          <t>-57,65; 18,97</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-17,14; 51,79</t>
+          <t>-10,53; 71,8</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 60,01</t>
+          <t>-32,89; 32,44</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-19,31; 35,15</t>
+          <t>-43,61; 26,73</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>2,71; 82,31</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-14,38; 53,15</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-41,75; 7,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
